--- a/migrations/migration-template (1).xlsx
+++ b/migrations/migration-template (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizoltow\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF92A1A-0BC8-483E-8006-2362B881368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809BF35-7F59-4C3D-ABAA-29F1719FB897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League_Gameweeks" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="193">
   <si>
     <t>Week</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Wout Weghorst</t>
   </si>
   <si>
-    <t>Ricardo Orsolini</t>
-  </si>
-  <si>
     <t>Luis Javier Suarez</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Jan Grzesik</t>
   </si>
   <si>
-    <t>Philip Stojilkovic</t>
-  </si>
-  <si>
     <t>David Promise</t>
   </si>
   <si>
@@ -624,6 +618,9 @@
   </si>
   <si>
     <t>Tammy Abraham</t>
+  </si>
+  <si>
+    <t>Riccardo Orsolini</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1842,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1870,10 +1867,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2038,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -2182,25 +2179,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>80</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>81</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -2220,43 +2217,43 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>88</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -2270,43 +2267,43 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>96</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -2332,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2344,19 +2341,19 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>101</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -2388,25 +2385,25 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>103</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
@@ -2432,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2476,13 +2473,13 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2500,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>108</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
@@ -2526,19 +2523,19 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2570,25 +2567,25 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
       </c>
       <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2606,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -2620,43 +2617,43 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="3">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
@@ -2670,43 +2667,43 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>88</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>89</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -2732,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2744,19 +2741,19 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>119</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
@@ -2782,19 +2779,19 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>121</v>
-      </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2806,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2844,19 +2841,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>103</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>104</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -2876,19 +2873,19 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -2900,13 +2897,13 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>123</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>124</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -2920,25 +2917,25 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>85</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -2950,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="3">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="3">
         <v>1</v>
@@ -2970,25 +2967,25 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -3000,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -3020,25 +3017,25 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -3056,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -3070,37 +3067,37 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -3126,13 +3123,13 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -3176,13 +3173,13 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>106</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -3194,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -3206,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -3226,19 +3223,19 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -3250,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -3270,31 +3267,31 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>86</v>
-      </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -3320,25 +3317,25 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>133</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>134</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -3370,37 +3367,37 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
@@ -3420,25 +3417,25 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -3476,19 +3473,19 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -3506,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -3526,19 +3523,19 @@
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -3550,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3576,19 +3573,19 @@
         <v>61</v>
       </c>
       <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>111</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>112</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -3620,25 +3617,25 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -3650,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -3670,37 +3667,37 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M37" s="3">
         <v>2</v>
@@ -3720,25 +3717,25 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>96</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>97</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -3750,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>103</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>104</v>
       </c>
       <c r="O38" s="3">
         <v>0</v>
@@ -3770,25 +3767,25 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -3800,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M39" s="3">
         <v>1</v>
@@ -3826,13 +3823,13 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="3">
         <v>2</v>
@@ -3850,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M40" s="3">
         <v>2</v>
@@ -3888,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -3900,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3926,37 +3923,37 @@
         <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>110</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>111</v>
-      </c>
       <c r="M42" s="3">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3970,37 +3967,37 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -4020,25 +4017,25 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -4070,25 +4067,25 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -4100,13 +4097,13 @@
         <v>4</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M45" s="3">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O45" s="3">
         <v>1</v>
@@ -4120,31 +4117,31 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -4156,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -4176,13 +4173,13 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -4194,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>102</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>103</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>104</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -4250,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M48" s="3">
         <v>1</v>
@@ -4282,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4294,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M49" s="3">
         <v>3</v>
@@ -4323,40 +4320,40 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M50" s="3">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O50" s="3">
         <v>1</v>
@@ -4370,43 +4367,43 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
       </c>
       <c r="J51" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>111</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>112</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -4420,25 +4417,25 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -4450,13 +4447,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4470,25 +4467,25 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -4526,19 +4523,19 @@
         <v>54</v>
       </c>
       <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -4550,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M54" s="3">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -4588,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -4600,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>100</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
-        <v>101</v>
       </c>
       <c r="O55" s="3">
         <v>0</v>
@@ -4644,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
@@ -4656,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4700,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4723,40 +4720,40 @@
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>160</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
         <v>166</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>168</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4770,43 +4767,43 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4820,31 +4817,31 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I60" s="3">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
@@ -4856,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -4876,19 +4873,19 @@
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" s="3">
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4900,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4938,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -5000,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M63" s="3">
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="3">
         <v>1</v>
@@ -5026,7 +5023,7 @@
         <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
@@ -5044,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
@@ -5082,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -5100,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M65" s="3">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
@@ -5123,16 +5120,16 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -5144,19 +5141,19 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -5170,43 +5167,43 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G67" s="3">
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M67" s="3">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
@@ -5223,40 +5220,40 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M68" s="3">
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
@@ -5288,13 +5285,13 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I69" s="3">
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -5306,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O69" s="3">
         <v>0</v>
@@ -5344,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K70" s="3">
         <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M70" s="3">
         <v>1</v>
@@ -5382,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -5450,13 +5447,13 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -5482,25 +5479,25 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
         <v>103</v>
       </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>104</v>
-      </c>
       <c r="I73" s="3">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M73" s="3">
         <v>0</v>
@@ -5523,7 +5520,7 @@
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P74" t="b">
         <v>0</v>
@@ -5537,7 +5534,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" t="b">
         <v>0</v>
@@ -5551,7 +5548,7 @@
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
@@ -5565,7 +5562,7 @@
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
@@ -5649,7 +5646,7 @@
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -5663,7 +5660,7 @@
         <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P84" t="b">
         <v>0</v>
@@ -5677,7 +5674,7 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P85" t="b">
         <v>0</v>
@@ -5691,7 +5688,7 @@
         <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -5775,7 +5772,7 @@
         <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P92" t="b">
         <v>0</v>
@@ -5789,7 +5786,7 @@
         <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P93" t="b">
         <v>0</v>
@@ -5803,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
@@ -5817,7 +5814,7 @@
         <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P95" t="b">
         <v>0</v>
@@ -5901,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P101" t="b">
         <v>0</v>
@@ -5915,7 +5912,7 @@
         <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P102" t="b">
         <v>0</v>
@@ -5929,7 +5926,7 @@
         <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P103" t="b">
         <v>0</v>
@@ -5943,7 +5940,7 @@
         <v>61</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P104" t="b">
         <v>0</v>
@@ -6027,7 +6024,7 @@
         <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P110" t="b">
         <v>0</v>
@@ -6041,7 +6038,7 @@
         <v>61</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P111" t="b">
         <v>0</v>
@@ -6055,7 +6052,7 @@
         <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P112" t="b">
         <v>0</v>
@@ -6069,7 +6066,7 @@
         <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P113" t="b">
         <v>0</v>
@@ -6153,7 +6150,7 @@
         <v>68</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P119" t="b">
         <v>0</v>
@@ -6167,7 +6164,7 @@
         <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P120" t="b">
         <v>0</v>
@@ -6178,10 +6175,10 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P121" t="b">
         <v>0</v>
@@ -6276,10 +6273,10 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P128" t="b">
         <v>0</v>
@@ -6290,10 +6287,10 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P129" t="b">
         <v>0</v>
@@ -6377,7 +6374,7 @@
         <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P135" t="b">
         <v>0</v>
@@ -6391,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="C136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P136" t="b">
         <v>0</v>
@@ -6402,10 +6399,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P137" t="b">
         <v>0</v>
@@ -6475,7 +6472,7 @@
         <v>55</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P142" t="b">
         <v>0</v>
@@ -6489,7 +6486,7 @@
         <v>62</v>
       </c>
       <c r="C143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P143" t="b">
         <v>0</v>
@@ -6503,7 +6500,7 @@
         <v>69</v>
       </c>
       <c r="C144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P144" t="b">
         <v>0</v>
@@ -6517,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P145" t="b">
         <v>0</v>
@@ -6573,7 +6570,7 @@
         <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P149" t="b">
         <v>0</v>
@@ -6587,7 +6584,7 @@
         <v>47</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P150" t="b">
         <v>0</v>
@@ -6601,7 +6598,7 @@
         <v>55</v>
       </c>
       <c r="C151" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P151" t="b">
         <v>0</v>
@@ -6615,7 +6612,7 @@
         <v>62</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P152" t="b">
         <v>0</v>
@@ -6671,7 +6668,7 @@
         <v>54</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P156" t="b">
         <v>0</v>
@@ -6685,7 +6682,7 @@
         <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P157" t="b">
         <v>0</v>
@@ -6699,7 +6696,7 @@
         <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P158" t="b">
         <v>0</v>
@@ -6713,7 +6710,7 @@
         <v>47</v>
       </c>
       <c r="C159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P159" t="b">
         <v>0</v>
@@ -6769,7 +6766,7 @@
         <v>68</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P163" t="b">
         <v>0</v>
@@ -6783,7 +6780,7 @@
         <v>61</v>
       </c>
       <c r="C164" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P164" t="b">
         <v>0</v>
@@ -6797,7 +6794,7 @@
         <v>54</v>
       </c>
       <c r="C165" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P165" t="b">
         <v>0</v>
@@ -6811,7 +6808,7 @@
         <v>46</v>
       </c>
       <c r="C166" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P166" t="b">
         <v>0</v>
@@ -6864,7 +6861,7 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C170" t="s">
         <v>38</v>
@@ -6881,7 +6878,7 @@
         <v>76</v>
       </c>
       <c r="C171" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P171" t="b">
         <v>0</v>
@@ -6895,7 +6892,7 @@
         <v>68</v>
       </c>
       <c r="C172" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P172" t="b">
         <v>0</v>
@@ -6909,7 +6906,7 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P173" t="b">
         <v>0</v>
@@ -6976,7 +6973,7 @@
         <v>23</v>
       </c>
       <c r="B178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C178" t="s">
         <v>38</v>
@@ -6990,10 +6987,10 @@
         <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C179" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P179" t="b">
         <v>0</v>
@@ -7007,7 +7004,7 @@
         <v>76</v>
       </c>
       <c r="C180" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P180" t="b">
         <v>0</v>
@@ -7088,7 +7085,7 @@
         <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C186" t="s">
         <v>38</v>
@@ -7102,10 +7099,10 @@
         <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C187" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P187" t="b">
         <v>0</v>
@@ -7116,7 +7113,7 @@
         <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C188" t="s">
         <v>77</v>
@@ -7200,7 +7197,7 @@
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -7214,7 +7211,7 @@
         <v>25</v>
       </c>
       <c r="B195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C195" t="s">
         <v>77</v>
@@ -7228,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C196" t="s">
         <v>69</v>
@@ -7242,7 +7239,7 @@
         <v>25</v>
       </c>
       <c r="B197" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C197" t="s">
         <v>62</v>
@@ -7326,7 +7323,7 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C203" t="s">
         <v>69</v>
@@ -7340,7 +7337,7 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C204" t="s">
         <v>62</v>
@@ -7354,7 +7351,7 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
         <v>55</v>
@@ -7368,7 +7365,7 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C206" t="s">
         <v>47</v>
@@ -7452,7 +7449,7 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C212" t="s">
         <v>55</v>
@@ -7466,7 +7463,7 @@
         <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C213" t="s">
         <v>47</v>
@@ -7480,7 +7477,7 @@
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C214" t="s">
         <v>39</v>
@@ -7494,7 +7491,7 @@
         <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C215" t="s">
         <v>46</v>
@@ -7578,7 +7575,7 @@
         <v>28</v>
       </c>
       <c r="B221" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C221" t="s">
         <v>39</v>
@@ -7592,7 +7589,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C222" t="s">
         <v>46</v>
@@ -7606,7 +7603,7 @@
         <v>28</v>
       </c>
       <c r="B223" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C223" t="s">
         <v>54</v>
@@ -7620,7 +7617,7 @@
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C224" t="s">
         <v>61</v>
@@ -7704,7 +7701,7 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C230" t="s">
         <v>54</v>
@@ -7718,7 +7715,7 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C231" t="s">
         <v>61</v>
@@ -7732,7 +7729,7 @@
         <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -7746,7 +7743,7 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C233" t="s">
         <v>76</v>
@@ -7830,7 +7827,7 @@
         <v>30</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -7844,7 +7841,7 @@
         <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C240" t="s">
         <v>76</v>
@@ -7858,10 +7855,10 @@
         <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P241" t="b">
         <v>0</v>
@@ -8085,7 +8082,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8093,7 +8090,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8101,7 +8098,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8133,7 +8130,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8154,7 +8151,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -8162,7 +8159,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -8170,7 +8167,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -8178,15 +8175,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -8202,7 +8199,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -8210,7 +8207,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -8228,9 +8225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8268,10 +8263,10 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -8327,25 +8322,25 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -8357,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -8386,43 +8381,43 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>139</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>141</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
@@ -8448,40 +8443,40 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
@@ -8507,40 +8502,40 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="3">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
@@ -8563,43 +8558,43 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="3">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -8628,13 +8623,13 @@
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
@@ -8652,13 +8647,13 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -8684,7 +8679,7 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -8699,25 +8694,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -8743,7 +8738,7 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -8752,31 +8747,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>142</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -8799,7 +8794,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -8822,7 +8817,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -8845,10 +8840,10 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" s="4" t="b">
         <v>0</v>
@@ -8897,19 +8892,19 @@
         <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -8921,13 +8916,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -8950,43 +8945,43 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
         <v>123</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>124</v>
       </c>
       <c r="R15" s="3">
         <v>2</v>
@@ -9012,7 +9007,7 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -9021,31 +9016,31 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P16" s="3">
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R16" s="3">
         <v>0</v>
@@ -9074,37 +9069,37 @@
         <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J17" s="3">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -9127,37 +9122,37 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N18" s="3">
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -9186,13 +9181,13 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -9210,13 +9205,13 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>124</v>
       </c>
       <c r="R19" s="3">
         <v>0</v>
@@ -9245,13 +9240,13 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -9263,19 +9258,19 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R20" s="3">
         <v>1</v>
@@ -9301,10 +9296,10 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -9316,25 +9311,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -9357,7 +9352,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -9406,7 +9401,7 @@
         <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S24" s="4" t="b">
         <v>0</v>
@@ -9446,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -9461,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -9479,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -9505,22 +9500,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -9532,19 +9527,19 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
+        <v>151</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>153</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>155</v>
       </c>
       <c r="P27" s="3">
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -9564,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>76</v>
@@ -9579,19 +9574,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -9603,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R28" s="3">
         <v>0</v>
@@ -9623,46 +9618,46 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
         <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -9682,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
@@ -9691,25 +9686,25 @@
         <v>69</v>
       </c>
       <c r="G30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>109</v>
-      </c>
       <c r="L30" s="3">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -9721,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R30" s="3">
         <v>1</v>
@@ -9741,13 +9736,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
         <v>78</v>
@@ -9756,31 +9751,31 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P31" s="3">
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R31" s="3">
         <v>1</v>
@@ -9800,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -9809,25 +9804,25 @@
         <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -9839,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -9859,46 +9854,46 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -9918,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
         <v>55</v>
@@ -9941,13 +9936,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S35" s="4" t="b">
         <v>0</v>
@@ -9964,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -9987,10 +9982,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
@@ -10010,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -10025,13 +10020,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L38" s="3">
         <v>1</v>
@@ -10043,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P38" s="3">
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -10069,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
@@ -10084,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -10096,13 +10091,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -10128,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -10143,13 +10138,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -10161,13 +10156,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P40" s="3">
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -10187,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
@@ -10196,13 +10191,13 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -10214,13 +10209,13 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -10240,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
         <v>39</v>
@@ -10249,13 +10244,13 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -10267,13 +10262,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P42" s="3">
         <v>1</v>
@@ -10293,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
@@ -10302,13 +10297,13 @@
         <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -10320,13 +10315,13 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -10352,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
@@ -10361,13 +10356,13 @@
         <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -10379,13 +10374,13 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -10405,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>77</v>
@@ -10414,13 +10409,13 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>80</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>81</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -10432,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -10458,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
         <v>39</v>
@@ -10481,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -10504,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
         <v>61</v>
@@ -10527,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
         <v>77</v>
@@ -10563,7 +10558,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -10571,18 +10566,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10590,7 +10585,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -10598,7 +10593,7 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10606,15 +10601,15 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10622,7 +10617,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10630,7 +10625,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10638,7 +10633,7 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10646,7 +10641,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10654,15 +10649,15 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -10670,7 +10665,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10678,7 +10673,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10681,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10694,7 +10689,7 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
